--- a/CW1/Results400Lab.xlsx
+++ b/CW1/Results400Lab.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40168766\Documents\GitHub\ConcurrentAndParallelSystems\CW1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="720" yWindow="420" windowWidth="27555" windowHeight="13575"/>
   </bookViews>
   <sheets>
     <sheet name="Kevin400Lab" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="10">
   <si>
     <t>Image Dimensions (px)</t>
   </si>
@@ -42,11 +47,14 @@
   <si>
     <t>Average:</t>
   </si>
+  <si>
+    <t>Fixed Parallel For</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,6 +602,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -641,7 +652,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,7 +687,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -885,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q146"/>
+  <dimension ref="B1:W146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A137" activeCellId="1" sqref="A124:XFD124 A137:XFD137"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V132" sqref="V132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,10 +919,15 @@
     <col min="15" max="15" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:23" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
@@ -921,8 +937,11 @@
       <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,8 +978,20 @@
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -997,8 +1028,20 @@
       <c r="Q3" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="1">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1">
+        <v>664</v>
+      </c>
+      <c r="W3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1035,8 +1078,20 @@
       <c r="Q4" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="1">
+        <v>4</v>
+      </c>
+      <c r="V4" s="1">
+        <v>648</v>
+      </c>
+      <c r="W4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1073,8 +1128,20 @@
       <c r="Q5" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="1">
+        <v>4</v>
+      </c>
+      <c r="V5" s="1">
+        <v>592</v>
+      </c>
+      <c r="W5" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1111,8 +1178,20 @@
       <c r="Q6" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4</v>
+      </c>
+      <c r="V6" s="1">
+        <v>594</v>
+      </c>
+      <c r="W6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1149,8 +1228,20 @@
       <c r="Q7" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4</v>
+      </c>
+      <c r="V7" s="1">
+        <v>593</v>
+      </c>
+      <c r="W7" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +1317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1302,7 +1393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1340,7 +1431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1362,8 +1453,15 @@
         <f>AVERAGE(P3:P12)</f>
         <v>561.9</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="1">
+        <f>AVERAGE(V3:V12)</f>
+        <v>618.20000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1400,8 +1498,20 @@
       <c r="Q15" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="1">
+        <v>4</v>
+      </c>
+      <c r="V15" s="1">
+        <v>583</v>
+      </c>
+      <c r="W15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1438,8 +1548,20 @@
       <c r="Q16" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U16" s="1">
+        <v>4</v>
+      </c>
+      <c r="V16" s="1">
+        <v>577</v>
+      </c>
+      <c r="W16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1476,8 +1598,20 @@
       <c r="Q17" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="1">
+        <v>4</v>
+      </c>
+      <c r="V17" s="1">
+        <v>572</v>
+      </c>
+      <c r="W17" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1514,8 +1648,20 @@
       <c r="Q18" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="1">
+        <v>4</v>
+      </c>
+      <c r="V18" s="1">
+        <v>577</v>
+      </c>
+      <c r="W18" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1552,8 +1698,20 @@
       <c r="Q19" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19" s="1">
+        <v>4</v>
+      </c>
+      <c r="V19" s="1">
+        <v>578</v>
+      </c>
+      <c r="W19" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1629,7 +1787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1667,7 +1825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +1863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1743,7 +1901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1765,8 +1923,15 @@
         <f>AVERAGE(P15:P24)</f>
         <v>540.6</v>
       </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="1">
+        <f>AVERAGE(V15:V24)</f>
+        <v>577.4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1803,8 +1968,20 @@
       <c r="Q27" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="1">
+        <v>4</v>
+      </c>
+      <c r="V27" s="1">
+        <v>680</v>
+      </c>
+      <c r="W27" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
@@ -1841,8 +2018,20 @@
       <c r="Q28" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U28" s="1">
+        <v>4</v>
+      </c>
+      <c r="V28" s="1">
+        <v>678</v>
+      </c>
+      <c r="W28" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
@@ -1879,8 +2068,20 @@
       <c r="Q29" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="1">
+        <v>4</v>
+      </c>
+      <c r="V29" s="1">
+        <v>685</v>
+      </c>
+      <c r="W29" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
@@ -1917,8 +2118,20 @@
       <c r="Q30" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U30" s="1">
+        <v>4</v>
+      </c>
+      <c r="V30" s="1">
+        <v>685</v>
+      </c>
+      <c r="W30" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
@@ -1955,8 +2168,20 @@
       <c r="Q31" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U31" s="1">
+        <v>4</v>
+      </c>
+      <c r="V31" s="1">
+        <v>683</v>
+      </c>
+      <c r="W31" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
@@ -1994,7 +2219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2032,7 +2257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
@@ -2070,7 +2295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
@@ -2108,7 +2333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
@@ -2146,7 +2371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
@@ -2168,8 +2393,15 @@
         <f>AVERAGE(P27:P36)</f>
         <v>659.6</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="U37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V37" s="1">
+        <f>AVERAGE(V27:V36)</f>
+        <v>682.2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
@@ -2180,7 +2412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
@@ -2217,8 +2449,20 @@
       <c r="Q40" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U40" s="1">
+        <v>16</v>
+      </c>
+      <c r="V40" s="1">
+        <v>2286</v>
+      </c>
+      <c r="W40" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>4</v>
       </c>
@@ -2255,8 +2499,20 @@
       <c r="Q41" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="1">
+        <v>16</v>
+      </c>
+      <c r="V41" s="1">
+        <v>2275</v>
+      </c>
+      <c r="W41" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2293,8 +2549,20 @@
       <c r="Q42" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U42" s="1">
+        <v>16</v>
+      </c>
+      <c r="V42" s="1">
+        <v>2255</v>
+      </c>
+      <c r="W42" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
@@ -2331,8 +2599,20 @@
       <c r="Q43" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="1">
+        <v>16</v>
+      </c>
+      <c r="V43" s="1">
+        <v>2299</v>
+      </c>
+      <c r="W43" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
@@ -2369,8 +2649,20 @@
       <c r="Q44" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="1">
+        <v>16</v>
+      </c>
+      <c r="V44" s="1">
+        <v>2270</v>
+      </c>
+      <c r="W44" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
@@ -2408,7 +2700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
@@ -2446,7 +2738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>4</v>
       </c>
@@ -2484,7 +2776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
@@ -2522,7 +2814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>4</v>
       </c>
@@ -2560,7 +2852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
         <v>8</v>
       </c>
@@ -2582,8 +2874,15 @@
         <f>AVERAGE(P40:P49)</f>
         <v>2201.8000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V50" s="1">
+        <f>AVERAGE(V40:V49)</f>
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>4</v>
       </c>
@@ -2620,8 +2919,20 @@
       <c r="Q52" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="1">
+        <v>16</v>
+      </c>
+      <c r="V52" s="1">
+        <v>2231</v>
+      </c>
+      <c r="W52" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
@@ -2658,8 +2969,20 @@
       <c r="Q53" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U53" s="1">
+        <v>16</v>
+      </c>
+      <c r="V53" s="1">
+        <v>2225</v>
+      </c>
+      <c r="W53" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>4</v>
       </c>
@@ -2696,8 +3019,20 @@
       <c r="Q54" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="1">
+        <v>16</v>
+      </c>
+      <c r="V54" s="1">
+        <v>2226</v>
+      </c>
+      <c r="W54" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>4</v>
       </c>
@@ -2734,8 +3069,20 @@
       <c r="Q55" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U55" s="1">
+        <v>16</v>
+      </c>
+      <c r="V55" s="1">
+        <v>2219</v>
+      </c>
+      <c r="W55" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>4</v>
       </c>
@@ -2772,8 +3119,20 @@
       <c r="Q56" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U56" s="1">
+        <v>16</v>
+      </c>
+      <c r="V56" s="1">
+        <v>2228</v>
+      </c>
+      <c r="W56" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
@@ -2811,7 +3170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>4</v>
       </c>
@@ -2849,7 +3208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
@@ -2887,7 +3246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>4</v>
       </c>
@@ -2925,7 +3284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>4</v>
       </c>
@@ -2963,7 +3322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
@@ -2985,8 +3344,15 @@
         <f>AVERAGE(P52:P61)</f>
         <v>2159.9</v>
       </c>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="1">
+        <f>AVERAGE(V52:V61)</f>
+        <v>2225.8000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>4</v>
       </c>
@@ -3023,8 +3389,20 @@
       <c r="Q64" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U64" s="1">
+        <v>16</v>
+      </c>
+      <c r="V64" s="1">
+        <v>2669</v>
+      </c>
+      <c r="W64" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>4</v>
       </c>
@@ -3061,8 +3439,20 @@
       <c r="Q65" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U65" s="1">
+        <v>16</v>
+      </c>
+      <c r="V65" s="1">
+        <v>2653</v>
+      </c>
+      <c r="W65" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>4</v>
       </c>
@@ -3099,8 +3489,20 @@
       <c r="Q66" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="1">
+        <v>16</v>
+      </c>
+      <c r="V66" s="1">
+        <v>2673</v>
+      </c>
+      <c r="W66" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>4</v>
       </c>
@@ -3137,8 +3539,20 @@
       <c r="Q67" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U67" s="1">
+        <v>16</v>
+      </c>
+      <c r="V67" s="1">
+        <v>2679</v>
+      </c>
+      <c r="W67" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>4</v>
       </c>
@@ -3175,8 +3589,20 @@
       <c r="Q68" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U68" s="1">
+        <v>16</v>
+      </c>
+      <c r="V68" s="1">
+        <v>2681</v>
+      </c>
+      <c r="W68" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>4</v>
       </c>
@@ -3214,7 +3640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>4</v>
       </c>
@@ -3252,7 +3678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>4</v>
       </c>
@@ -3290,7 +3716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>4</v>
       </c>
@@ -3328,7 +3754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>4</v>
       </c>
@@ -3366,7 +3792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C74" s="2" t="s">
         <v>8</v>
       </c>
@@ -3388,8 +3814,15 @@
         <f>AVERAGE(P64:P73)</f>
         <v>2611</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="U74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V74" s="1">
+        <f>AVERAGE(V64:V73)</f>
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3400,7 +3833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>4</v>
       </c>
@@ -3437,8 +3870,20 @@
       <c r="Q77" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U77" s="1">
+        <v>64</v>
+      </c>
+      <c r="V77" s="1">
+        <v>9133</v>
+      </c>
+      <c r="W77" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>4</v>
       </c>
@@ -3475,8 +3920,20 @@
       <c r="Q78" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U78" s="1">
+        <v>64</v>
+      </c>
+      <c r="V78" s="1">
+        <v>9198</v>
+      </c>
+      <c r="W78" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
@@ -3513,8 +3970,20 @@
       <c r="Q79" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U79" s="1">
+        <v>64</v>
+      </c>
+      <c r="V79" s="1">
+        <v>9220</v>
+      </c>
+      <c r="W79" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>4</v>
       </c>
@@ -3551,8 +4020,20 @@
       <c r="Q80" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U80" s="1">
+        <v>64</v>
+      </c>
+      <c r="V80" s="1">
+        <v>9105</v>
+      </c>
+      <c r="W80" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>4</v>
       </c>
@@ -3589,8 +4070,20 @@
       <c r="Q81" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="1">
+        <v>64</v>
+      </c>
+      <c r="V81" s="1">
+        <v>9015</v>
+      </c>
+      <c r="W81" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>4</v>
       </c>
@@ -3628,7 +4121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>4</v>
       </c>
@@ -3666,7 +4159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>4</v>
       </c>
@@ -3704,7 +4197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>4</v>
       </c>
@@ -3742,7 +4235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>4</v>
       </c>
@@ -3780,7 +4273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
@@ -3802,8 +4295,15 @@
         <f>AVERAGE(P77:P86)</f>
         <v>8953.4</v>
       </c>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V87" s="1">
+        <f>AVERAGE(V77:V86)</f>
+        <v>9134.2000000000007</v>
+      </c>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>4</v>
       </c>
@@ -3840,8 +4340,20 @@
       <c r="Q89" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="1">
+        <v>64</v>
+      </c>
+      <c r="V89" s="1">
+        <v>8861</v>
+      </c>
+      <c r="W89" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>4</v>
       </c>
@@ -3878,8 +4390,20 @@
       <c r="Q90" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U90" s="1">
+        <v>64</v>
+      </c>
+      <c r="V90" s="1">
+        <v>8861</v>
+      </c>
+      <c r="W90" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>4</v>
       </c>
@@ -3916,8 +4440,20 @@
       <c r="Q91" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="1">
+        <v>64</v>
+      </c>
+      <c r="V91" s="1">
+        <v>8913</v>
+      </c>
+      <c r="W91" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>4</v>
       </c>
@@ -3954,8 +4490,20 @@
       <c r="Q92" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U92" s="1">
+        <v>64</v>
+      </c>
+      <c r="V92" s="1">
+        <v>8829</v>
+      </c>
+      <c r="W92" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>4</v>
       </c>
@@ -3992,8 +4540,20 @@
       <c r="Q93" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U93" s="1">
+        <v>64</v>
+      </c>
+      <c r="V93" s="1">
+        <v>8894</v>
+      </c>
+      <c r="W93" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>4</v>
       </c>
@@ -4031,7 +4591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>4</v>
       </c>
@@ -4069,7 +4629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>4</v>
       </c>
@@ -4107,7 +4667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>4</v>
       </c>
@@ -4145,7 +4705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>4</v>
       </c>
@@ -4183,7 +4743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C99" s="2" t="s">
         <v>8</v>
       </c>
@@ -4205,8 +4765,15 @@
         <f>AVERAGE(P89:P98)</f>
         <v>8949.4</v>
       </c>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V99" s="1">
+        <f>AVERAGE(V89:V98)</f>
+        <v>8871.6</v>
+      </c>
+    </row>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>4</v>
       </c>
@@ -4243,8 +4810,20 @@
       <c r="Q101" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="1">
+        <v>64</v>
+      </c>
+      <c r="V101" s="1">
+        <v>10683</v>
+      </c>
+      <c r="W101" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>4</v>
       </c>
@@ -4281,8 +4860,20 @@
       <c r="Q102" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="1">
+        <v>64</v>
+      </c>
+      <c r="V102" s="1">
+        <v>10661</v>
+      </c>
+      <c r="W102" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>4</v>
       </c>
@@ -4319,8 +4910,20 @@
       <c r="Q103" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U103" s="1">
+        <v>64</v>
+      </c>
+      <c r="V103" s="1">
+        <v>10565</v>
+      </c>
+      <c r="W103" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>4</v>
       </c>
@@ -4357,8 +4960,20 @@
       <c r="Q104" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U104" s="1">
+        <v>64</v>
+      </c>
+      <c r="V104" s="1">
+        <v>10608</v>
+      </c>
+      <c r="W104" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>4</v>
       </c>
@@ -4395,8 +5010,20 @@
       <c r="Q105" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U105" s="1">
+        <v>64</v>
+      </c>
+      <c r="V105" s="1">
+        <v>10559</v>
+      </c>
+      <c r="W105" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>4</v>
       </c>
@@ -4434,7 +5061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>4</v>
       </c>
@@ -4472,7 +5099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>4</v>
       </c>
@@ -4510,7 +5137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
@@ -4532,8 +5159,15 @@
         <f>AVERAGE(P101:P108)</f>
         <v>10534.75</v>
       </c>
-    </row>
-    <row r="111" spans="2:17" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="U109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V109" s="1">
+        <f>AVERAGE(V99:V108)</f>
+        <v>10324.6</v>
+      </c>
+    </row>
+    <row r="111" spans="2:23" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C111" s="3" t="s">
         <v>5</v>
       </c>
@@ -4544,7 +5178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>4</v>
       </c>
@@ -4581,8 +5215,20 @@
       <c r="Q112" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U112" s="1">
+        <v>256</v>
+      </c>
+      <c r="V112" s="1">
+        <v>35920</v>
+      </c>
+      <c r="W112" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>4</v>
       </c>
@@ -4619,8 +5265,20 @@
       <c r="Q113" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U113" s="1">
+        <v>256</v>
+      </c>
+      <c r="V113" s="1">
+        <v>36009</v>
+      </c>
+      <c r="W113" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>4</v>
       </c>
@@ -4657,8 +5315,20 @@
       <c r="Q114" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U114" s="1">
+        <v>256</v>
+      </c>
+      <c r="V114" s="1">
+        <v>35941</v>
+      </c>
+      <c r="W114" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>4</v>
       </c>
@@ -4695,8 +5365,20 @@
       <c r="Q115" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U115" s="1">
+        <v>256</v>
+      </c>
+      <c r="V115" s="1">
+        <v>36047</v>
+      </c>
+      <c r="W115" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>4</v>
       </c>
@@ -4733,8 +5415,20 @@
       <c r="Q116" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U116" s="1">
+        <v>256</v>
+      </c>
+      <c r="V116" s="1">
+        <v>35895</v>
+      </c>
+      <c r="W116" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>4</v>
       </c>
@@ -4772,7 +5466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>4</v>
       </c>
@@ -4810,7 +5504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>4</v>
       </c>
@@ -4848,7 +5542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>4</v>
       </c>
@@ -4886,7 +5580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>4</v>
       </c>
@@ -4924,7 +5618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
@@ -4946,8 +5640,15 @@
         <f>AVERAGE(P112:P121)</f>
         <v>35140.300000000003</v>
       </c>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V122" s="1">
+        <f>AVERAGE(V112:V121)</f>
+        <v>35962.400000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>4</v>
       </c>
@@ -4984,8 +5685,20 @@
       <c r="Q124" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U124" s="1">
+        <v>256</v>
+      </c>
+      <c r="V124" s="1">
+        <v>35058</v>
+      </c>
+      <c r="W124" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>4</v>
       </c>
@@ -5022,8 +5735,20 @@
       <c r="Q125" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U125" s="1">
+        <v>256</v>
+      </c>
+      <c r="V125" s="1">
+        <v>35387</v>
+      </c>
+      <c r="W125" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>4</v>
       </c>
@@ -5060,8 +5785,20 @@
       <c r="Q126" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U126" s="1">
+        <v>256</v>
+      </c>
+      <c r="V126" s="1">
+        <v>35355</v>
+      </c>
+      <c r="W126" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>4</v>
       </c>
@@ -5098,8 +5835,20 @@
       <c r="Q127" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U127" s="1">
+        <v>256</v>
+      </c>
+      <c r="V127" s="1">
+        <v>36080</v>
+      </c>
+      <c r="W127" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>4</v>
       </c>
@@ -5136,8 +5885,20 @@
       <c r="Q128" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U128" s="1">
+        <v>256</v>
+      </c>
+      <c r="V128" s="1">
+        <v>37541</v>
+      </c>
+      <c r="W128" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>4</v>
       </c>
@@ -5175,7 +5936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>4</v>
       </c>
@@ -5213,7 +5974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>4</v>
       </c>
@@ -5251,7 +6012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>4</v>
       </c>
@@ -5288,8 +6049,9 @@
       <c r="Q132" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U132" s="2"/>
+    </row>
+    <row r="133" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>4</v>
       </c>
@@ -5327,7 +6089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
@@ -5349,8 +6111,15 @@
         <f>AVERAGE(P124:P133)</f>
         <v>34430.1</v>
       </c>
-    </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V134" s="1">
+        <f>AVERAGE(V124:V133)</f>
+        <v>35884.199999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>4</v>
       </c>
@@ -5387,8 +6156,20 @@
       <c r="Q136" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U136" s="1">
+        <v>256</v>
+      </c>
+      <c r="V136" s="1">
+        <v>42085</v>
+      </c>
+      <c r="W136" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>4</v>
       </c>
@@ -5425,8 +6206,20 @@
       <c r="Q137" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U137" s="1">
+        <v>256</v>
+      </c>
+      <c r="V137" s="1">
+        <v>42019</v>
+      </c>
+      <c r="W137" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>4</v>
       </c>
@@ -5463,8 +6256,20 @@
       <c r="Q138" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U138" s="1">
+        <v>256</v>
+      </c>
+      <c r="V138" s="1">
+        <v>42031</v>
+      </c>
+      <c r="W138" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>4</v>
       </c>
@@ -5501,8 +6306,20 @@
       <c r="Q139" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U139" s="1">
+        <v>256</v>
+      </c>
+      <c r="V139" s="1">
+        <v>42024</v>
+      </c>
+      <c r="W139" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>4</v>
       </c>
@@ -5539,8 +6356,20 @@
       <c r="Q140" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U140" s="1">
+        <v>256</v>
+      </c>
+      <c r="V140" s="1">
+        <v>42080</v>
+      </c>
+      <c r="W140" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>4</v>
       </c>
@@ -5578,7 +6407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>4</v>
       </c>
@@ -5616,7 +6445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>4</v>
       </c>
@@ -5654,7 +6483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>4</v>
       </c>
@@ -5692,7 +6521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>4</v>
       </c>
@@ -5730,7 +6559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
@@ -5751,6 +6580,13 @@
       <c r="P146" s="1">
         <f>AVERAGE(P136:P145)</f>
         <v>41384</v>
+      </c>
+      <c r="U146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V146" s="1">
+        <f>AVERAGE(V136:V145)</f>
+        <v>42047.8</v>
       </c>
     </row>
   </sheetData>
